--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39828AD-C9C2-1A4D-8B93-62A8D79BBC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C34B8D-008B-9B4A-9A0C-82D35D31757A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -367,6 +367,55 @@
     </rPh>
     <rPh sb="75" eb="76">
       <t xml:space="preserve">サガシニ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>basepackage</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>blancoRestGeneratorがJavaソースコードを生成する際の基準となるパッケージ名を指定します。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>runtimepackage</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ランタイムクラスを生成する生成先を指定します。無指定の場合には basepackageを基準に生成されます。</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ドクジノ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>genUtils</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>真偽</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シンギ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーティリティ類の生成を省略する場合はfalseを指定します。</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ルイ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">セイセイヲ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ショウリャク </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">シテイ </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -902,6 +951,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -925,7 +975,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1317,7 +1366,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1361,7 +1410,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1388,8 +1437,8 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1434,10 +1483,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
@@ -1447,10 +1496,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="10" t="s">
         <v>51</v>
       </c>
@@ -1460,10 +1509,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
@@ -1475,10 +1524,10 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="15" t="s">
         <v>9</v>
       </c>
@@ -1512,40 +1561,40 @@
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="21">
@@ -1594,7 +1643,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="27">
-        <f t="shared" ref="A16:A25" si="0">A15+1</f>
+        <f t="shared" ref="A16:A28" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -1628,7 +1677,7 @@
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="55"/>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="61" t="s">
         <v>57</v>
       </c>
       <c r="G17" s="31"/>
@@ -1764,12 +1813,12 @@
       <c r="E23" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
       <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10">
@@ -1819,36 +1868,67 @@
       <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="27"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="29"/>
+      <c r="A26" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
+      <c r="F26" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="27"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="D27" s="29"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
+      <c r="F27" s="31" t="s">
+        <v>61</v>
+      </c>
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
       <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="27"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>63</v>
+      </c>
       <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
+      <c r="E28" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>64</v>
+      </c>
       <c r="G28" s="31"/>
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
@@ -2018,7 +2098,7 @@
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D24:D40 D14:D18" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D40" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C34B8D-008B-9B4A-9A0C-82D35D31757A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7079AA0F-1678-0947-A629-6593B3CAEA50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -416,6 +416,35 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>telegrampackage</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>電文の基底クラスが配備されているパッケージを指定します。指定がない場合はvalueobjectから探します。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">キテイ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ハイビ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シテイシマス。</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">シテイガ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t xml:space="preserve">サガシマス。 </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1366,7 +1395,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1410,7 +1439,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1438,7 +1467,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1643,7 +1672,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="27">
-        <f t="shared" ref="A16:A28" si="0">A15+1</f>
+        <f t="shared" ref="A16:A29" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -1935,12 +1964,21 @@
       <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="27"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="27">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="D29" s="29"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
+      <c r="F29" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7079AA0F-1678-0947-A629-6593B3CAEA50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1C8984-DA9E-9C42-A31C-65E93392B3CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -445,6 +445,98 @@
     </rPh>
     <rPh sb="49" eb="50">
       <t xml:space="preserve">サガシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>impledir</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>実装ファイルの配置ディレクトリを指定します。controllerから呼び出されるmanagementクラスのスケルトンはここに生成されます。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジッソウファイル </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ハイチ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">シテイシマス。 </t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t xml:space="preserve">ヨビダサレル </t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>genSkeleton</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>controllerから呼び出されるmanagementクラスのスケルトンを生成します。既にファイルが存在する場合は上書きしません。</t>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">ヨビダサレル </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t xml:space="preserve">スデニ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">ソンザイスル </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">ウワガキ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>skeletonDelegateClass</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>実装クラスが処理を委譲するクラスのCanonical名です。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ショリヲ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">イジョウスル </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>skeletonDelegateInterface</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>実装クラスが処理を委譲するクラスが実装するIntefaceのCanonical名です。</t>
+    <rPh sb="5" eb="6">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ショリヲ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">イジョウスル </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ジッソウスル </t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t xml:space="preserve">メイ </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1395,7 +1487,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1439,7 +1531,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1467,7 +1559,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1672,7 +1764,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="27">
-        <f t="shared" ref="A16:A29" si="0">A15+1</f>
+        <f t="shared" ref="A16:A33" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -1985,48 +2077,86 @@
       <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="27">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="D30" s="29"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
+      <c r="F30" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
       <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="27">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>63</v>
+      </c>
       <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
+      <c r="E31" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>70</v>
+      </c>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
       <c r="J31" s="32"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+      <c r="A32" s="27">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="D32" s="29"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
+      <c r="F32" s="31" t="s">
+        <v>72</v>
+      </c>
       <c r="G32" s="31"/>
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
       <c r="J32" s="32"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="27"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="A33" s="27">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="D33" s="29"/>
       <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
+      <c r="F33" s="31" t="s">
+        <v>74</v>
+      </c>
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
       <c r="I33" s="31"/>

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1C8984-DA9E-9C42-A31C-65E93392B3CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AB7998-A419-C345-8D8C-AA0B488B46D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -538,6 +538,18 @@
     <rPh sb="39" eb="40">
       <t xml:space="preserve">メイ </t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>lineSeparator</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>行末記号をしていします。LF=0x0a, CR=0x0d, CFLF=0x0d0x0a とします。LFがデフォルトです。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>LF</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1487,7 +1499,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1531,7 +1543,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1559,7 +1571,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2163,12 +2175,22 @@
       <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="27"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="27">
+        <v>21</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
+      <c r="E34" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>76</v>
+      </c>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
       <c r="I34" s="31"/>

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AB7998-A419-C345-8D8C-AA0B488B46D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ACD363-54B9-B740-9D47-E0D910FF970D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="anttask" sheetId="1" r:id="rId1"/>
     <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Submit有無">#REF!</definedName>
     <definedName name="Validate実装パターン">#REF!</definedName>
@@ -23,6 +26,7 @@
     <definedName name="デリミタ">#REF!</definedName>
     <definedName name="デリミタ選択肢">#REF!</definedName>
     <definedName name="型">#REF!</definedName>
+    <definedName name="型リスト">[1]config!$A$5:$A$12</definedName>
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">config!$C$5:$C$6</definedName>
   </definedNames>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -550,6 +554,75 @@
   </si>
   <si>
     <t>LF</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>packageSuffix</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>定義書で指定されたパッケージ名の後ろに追加するパッケージ文字列を指定します。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ウシロニ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>overridePackage</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>定義書で指定されたパッケージ名を上書きします。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ウワガキシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>overrideLocation</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>定義書で指定されたロケーション名を上書きします。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ウワガキシマス。 </t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -638,7 +711,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -990,11 +1063,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1108,6 +1194,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1191,6 +1279,47 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="anttask"/>
+      <sheetName val="config"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>文字列</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>整数(int)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>整数(long)</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>数値(decimal)</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>真偽</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1499,7 +1628,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1543,7 +1672,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1568,10 +1697,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1776,7 +1905,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="27">
-        <f t="shared" ref="A16:A33" si="0">A15+1</f>
+        <f t="shared" ref="A16:A37" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -2176,6 +2305,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="27">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B34" s="33" t="s">
@@ -2196,44 +2326,68 @@
       <c r="I34" s="31"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="27"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="32"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="27"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="27"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="32"/>
+    <row r="35" spans="1:10" s="60" customFormat="1">
+      <c r="A35" s="27">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="72"/>
+    </row>
+    <row r="36" spans="1:10" s="60" customFormat="1">
+      <c r="A36" s="27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="52"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="72"/>
+    </row>
+    <row r="37" spans="1:10" s="60" customFormat="1">
+      <c r="A37" s="27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="72"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="34"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
       <c r="D38" s="29"/>
@@ -2245,7 +2399,7 @@
       <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="34"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
       <c r="D39" s="29"/>
@@ -2257,16 +2411,52 @@
       <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="35"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="40"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="34"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="34"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="35"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2283,14 +2473,20 @@
     <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F56" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F59" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D40" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D34 D38:D43" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C35:C37" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
+      <formula1>型リスト</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D35:D37" xr:uid="{63D67B82-B922-2A4B-A753-C1FDBDD960D6}">
+      <formula1>必須</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59027777777777779" right="0.59027777777777779" top="0.59027777777777779" bottom="0.39375000000000004" header="0.51180555555555551" footer="0.11805555555555555"/>

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ACD363-54B9-B740-9D47-E0D910FF970D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E051C26E-D36A-C44C-B320-7D415361BF7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -622,6 +622,58 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t xml:space="preserve">ウワガキシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>voPackageSuffix</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>voOverridePackage</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>packageを探しにいくValueObject定義書を処理する際に指定されていたはずの overridePackage を指定します。</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">サガシニ </t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t xml:space="preserve">テイギショヲ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ショリスル </t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t xml:space="preserve">サイニ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シテイサレテイタ </t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>packageを探しにいくValueObject定義書を処理する際に指定されていたはずの packageSuffix を指定します。</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">サガシニ </t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t xml:space="preserve">テイギショヲ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ショリスル </t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t xml:space="preserve">サイニ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シテイサレテイタ </t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">シテイ </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1171,6 +1223,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1194,8 +1248,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1289,7 +1341,7 @@
       <sheetName val="config"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="5">
           <cell r="A5" t="str">
@@ -1315,6 +1367,15 @@
           <cell r="A9" t="str">
             <v>真偽</v>
           </cell>
+        </row>
+        <row r="10">
+          <cell r="A10"/>
+        </row>
+        <row r="11">
+          <cell r="A11"/>
+        </row>
+        <row r="12">
+          <cell r="A12"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -1628,7 +1689,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1672,7 +1733,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1745,10 +1806,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
@@ -1758,10 +1819,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="10" t="s">
         <v>51</v>
       </c>
@@ -1771,10 +1832,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="67"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
@@ -1786,10 +1847,10 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="67"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="15" t="s">
         <v>9</v>
       </c>
@@ -1823,40 +1884,40 @@
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="21">
@@ -1905,7 +1966,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="27">
-        <f t="shared" ref="A16:A37" si="0">A15+1</f>
+        <f t="shared" ref="A16:A39" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -2075,12 +2136,12 @@
       <c r="E23" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
       <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10">
@@ -2338,13 +2399,13 @@
         <v>35</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="71"/>
+      <c r="E35" s="62"/>
       <c r="F35" s="59" t="s">
         <v>79</v>
       </c>
       <c r="G35" s="50"/>
       <c r="H35" s="50"/>
-      <c r="I35" s="72"/>
+      <c r="I35" s="63"/>
     </row>
     <row r="36" spans="1:10" s="60" customFormat="1">
       <c r="A36" s="27">
@@ -2358,13 +2419,13 @@
         <v>35</v>
       </c>
       <c r="D36" s="52"/>
-      <c r="E36" s="71"/>
+      <c r="E36" s="62"/>
       <c r="F36" s="59" t="s">
         <v>81</v>
       </c>
       <c r="G36" s="50"/>
       <c r="H36" s="50"/>
-      <c r="I36" s="72"/>
+      <c r="I36" s="63"/>
     </row>
     <row r="37" spans="1:10" s="60" customFormat="1">
       <c r="A37" s="27">
@@ -2378,33 +2439,51 @@
         <v>35</v>
       </c>
       <c r="D37" s="52"/>
-      <c r="E37" s="71"/>
+      <c r="E37" s="62"/>
       <c r="F37" s="59" t="s">
         <v>83</v>
       </c>
       <c r="G37" s="50"/>
       <c r="H37" s="50"/>
-      <c r="I37" s="72"/>
+      <c r="I37" s="63"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="27"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="A38" s="27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>35</v>
+      </c>
       <c r="D38" s="29"/>
       <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
+      <c r="F38" s="31" t="s">
+        <v>87</v>
+      </c>
       <c r="G38" s="31"/>
       <c r="H38" s="31"/>
       <c r="I38" s="31"/>
       <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="27"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
+      <c r="A39" s="27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>35</v>
+      </c>
       <c r="D39" s="29"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
+      <c r="F39" s="31" t="s">
+        <v>86</v>
+      </c>
       <c r="G39" s="31"/>
       <c r="H39" s="31"/>
       <c r="I39" s="31"/>
@@ -2482,7 +2561,7 @@
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C35:C37" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C35:C39" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
       <formula1>型リスト</formula1>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="D35:D37" xr:uid="{63D67B82-B922-2A4B-A753-C1FDBDD960D6}">

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E051C26E-D36A-C44C-B320-7D415361BF7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1F77BA-81BD-D04B-8160-BE3592C11CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,18 +16,8 @@
     <sheet name="anttask" sheetId="1" r:id="rId1"/>
     <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="Submit有無">#REF!</definedName>
-    <definedName name="Validate実装パターン">#REF!</definedName>
-    <definedName name="チェック種別">#REF!</definedName>
-    <definedName name="デリミタ">#REF!</definedName>
-    <definedName name="デリミタ選択肢">#REF!</definedName>
-    <definedName name="型">#REF!</definedName>
-    <definedName name="型リスト">[1]config!$A$5:$A$12</definedName>
-    <definedName name="項目型">#REF!</definedName>
+    <definedName name="型リスト">config!$A$5:$A$12</definedName>
     <definedName name="必須">config!$C$5:$C$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -674,6 +664,103 @@
     </rPh>
     <rPh sb="60" eb="62">
       <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>整数(long)</t>
+    <rPh sb="0" eb="2">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>数値(decimal)</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>clientAnnotation</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Clientモード時に、接続先サーバ名を指定するためのアノテーションを記述します。定義書に記載がある場合はそちらを優先します。現在の所、micronautのみが使用可能です。</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ジ </t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t xml:space="preserve">セツゾクサキ </t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイシマス</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t xml:space="preserve">テイギショニ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">キサイガ </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">ユウセｎ </t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">ゲンザイノトコロ </t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t xml:space="preserve">シヨウカノウデス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>overrideClientAnnotation</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Clientモード時に、接続先サーバ名を指定するためのアノテーションを記述します。定義書の記載よりも優先されます。現在の所、micronautのみが使用可能です。</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ジ </t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t xml:space="preserve">セツゾクサキ </t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイシマス</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t xml:space="preserve">テイギショニ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">キサイ </t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">ユウセｎ </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">ゲンザイノトコロ </t>
+    </rPh>
+    <rPh sb="74" eb="78">
+      <t xml:space="preserve">シヨウカノウデス。 </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -737,7 +824,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -762,8 +849,14 @@
         <bgColor indexed="41"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1128,11 +1221,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1225,6 +1372,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1331,56 +1482,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="anttask"/>
-      <sheetName val="config"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>文字列</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>整数(int)</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>整数(long)</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>数値(decimal)</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>真偽</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10"/>
-        </row>
-        <row r="11">
-          <cell r="A11"/>
-        </row>
-        <row r="12">
-          <cell r="A12"/>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1758,10 +1859,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1806,10 +1907,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
@@ -1819,10 +1920,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="69"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="10" t="s">
         <v>51</v>
       </c>
@@ -1832,10 +1933,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="69"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
@@ -1847,10 +1948,10 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="15" t="s">
         <v>9</v>
       </c>
@@ -1884,40 +1985,40 @@
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="21">
@@ -1966,7 +2067,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="27">
-        <f t="shared" ref="A16:A39" si="0">A15+1</f>
+        <f t="shared" ref="A16:A41" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -2136,12 +2237,12 @@
       <c r="E23" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
       <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10">
@@ -2173,17 +2274,15 @@
         <v>12</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C25" s="45" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="29"/>
-      <c r="E25" s="30" t="s">
-        <v>54</v>
-      </c>
+      <c r="E25" s="30"/>
       <c r="F25" s="31" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
@@ -2196,17 +2295,15 @@
         <v>13</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C26" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>16</v>
-      </c>
+      <c r="D26" s="29"/>
       <c r="E26" s="30"/>
       <c r="F26" s="31" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
@@ -2219,15 +2316,17 @@
         <v>14</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
+      <c r="E27" s="30" t="s">
+        <v>54</v>
+      </c>
       <c r="F27" s="31" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
@@ -2240,17 +2339,17 @@
         <v>15</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30" t="b">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="30"/>
       <c r="F28" s="31" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G28" s="31"/>
       <c r="H28" s="31"/>
@@ -2263,7 +2362,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>33</v>
@@ -2271,7 +2370,7 @@
       <c r="D29" s="29"/>
       <c r="E29" s="30"/>
       <c r="F29" s="31" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
@@ -2283,16 +2382,18 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>33</v>
+      <c r="B30" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
+      <c r="E30" s="30" t="b">
+        <v>1</v>
+      </c>
       <c r="F30" s="31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
@@ -2304,18 +2405,16 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B31" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>63</v>
+      <c r="B31" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>33</v>
       </c>
       <c r="D31" s="29"/>
-      <c r="E31" s="30" t="b">
-        <v>0</v>
-      </c>
+      <c r="E31" s="30"/>
       <c r="F31" s="31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
@@ -2328,7 +2427,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C32" s="45" t="s">
         <v>33</v>
@@ -2336,7 +2435,7 @@
       <c r="D32" s="29"/>
       <c r="E32" s="30"/>
       <c r="F32" s="31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G32" s="31"/>
       <c r="H32" s="31"/>
@@ -2349,15 +2448,17 @@
         <v>20</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>33</v>
+        <v>69</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
+      <c r="E33" s="30" t="b">
+        <v>0</v>
+      </c>
       <c r="F33" s="31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
@@ -2369,63 +2470,65 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>75</v>
+      <c r="B34" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="C34" s="45" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="29"/>
-      <c r="E34" s="30" t="s">
-        <v>77</v>
-      </c>
+      <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
       <c r="I34" s="31"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" s="60" customFormat="1">
+    <row r="35" spans="1:10">
       <c r="A35" s="27">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B35" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="63"/>
-    </row>
-    <row r="36" spans="1:10" s="60" customFormat="1">
+      <c r="B35" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="32"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="27">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B36" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="63"/>
+      <c r="B36" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" s="60" customFormat="1">
       <c r="A37" s="27">
@@ -2433,7 +2536,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C37" s="46" t="s">
         <v>35</v>
@@ -2441,80 +2544,96 @@
       <c r="D37" s="52"/>
       <c r="E37" s="62"/>
       <c r="F37" s="59" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G37" s="50"/>
       <c r="H37" s="50"/>
       <c r="I37" s="63"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" s="60" customFormat="1">
       <c r="A38" s="27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>84</v>
+      <c r="B38" s="51" t="s">
+        <v>80</v>
       </c>
       <c r="C38" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="D38" s="52"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="63"/>
+    </row>
+    <row r="39" spans="1:10" s="60" customFormat="1">
       <c r="A39" s="27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B39" s="33" t="s">
-        <v>85</v>
+      <c r="B39" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C39" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="63"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="27"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
+      <c r="A40" s="27">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>35</v>
+      </c>
       <c r="D40" s="29"/>
       <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
+      <c r="F40" s="31" t="s">
+        <v>87</v>
+      </c>
       <c r="G40" s="31"/>
       <c r="H40" s="31"/>
       <c r="I40" s="31"/>
       <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="34"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
+      <c r="A41" s="27">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>35</v>
+      </c>
       <c r="D41" s="29"/>
       <c r="E41" s="30"/>
-      <c r="F41" s="31"/>
+      <c r="F41" s="31" t="s">
+        <v>86</v>
+      </c>
       <c r="G41" s="31"/>
       <c r="H41" s="31"/>
       <c r="I41" s="31"/>
       <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="34"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
       <c r="D42" s="29"/>
@@ -2526,16 +2645,40 @@
       <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="35"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="40"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="34"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="35"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2553,19 +2696,19 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F59" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F61" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D34 D38:D43" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D40:D45 D24:D36" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C35:C39" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D37:D39" xr:uid="{63D67B82-B922-2A4B-A753-C1FDBDD960D6}">
+      <formula1>必須</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C45" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
       <formula1>型リスト</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D35:D37" xr:uid="{63D67B82-B922-2A4B-A753-C1FDBDD960D6}">
-      <formula1>必須</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59027777777777779" right="0.59027777777777779" top="0.59027777777777779" bottom="0.39375000000000004" header="0.51180555555555551" footer="0.11805555555555555"/>
@@ -2580,7 +2723,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -2613,46 +2758,58 @@
       <c r="D2" s="42"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4"/>
+      <c r="A4" s="64" t="s">
+        <v>88</v>
+      </c>
       <c r="B4"/>
       <c r="C4" s="43" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5"/>
+      <c r="A5" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="B5"/>
       <c r="C5" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6"/>
+      <c r="A6" s="66" t="s">
+        <v>48</v>
+      </c>
       <c r="B6"/>
       <c r="C6" s="35"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7"/>
+      <c r="A7" s="66" t="s">
+        <v>89</v>
+      </c>
       <c r="B7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8"/>
+      <c r="A8" s="66" t="s">
+        <v>90</v>
+      </c>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9"/>
+      <c r="A9" s="66" t="s">
+        <v>34</v>
+      </c>
       <c r="B9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10"/>
+      <c r="A10" s="66"/>
       <c r="B10"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11"/>
+      <c r="A11" s="66"/>
       <c r="B11"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12"/>
+      <c r="A12" s="67"/>
       <c r="B12"/>
     </row>
     <row r="13" spans="1:6">

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1F77BA-81BD-D04B-8160-BE3592C11CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E425AA05-1376-A24F-AE5D-6AA27E6304A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -761,6 +761,49 @@
     </rPh>
     <rPh sb="74" eb="78">
       <t xml:space="preserve">シヨウカノウデス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>telegramStyle</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>電文の形式を指定します。
+blanco: 電文をCommonRequest/CommonResponseでくるみます。
+plain: 電文を直接 payload に乗せます。GET は第一階層がクエリ文字列として定義されます。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ケイシキ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">シテイシマス。 </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">デンブンヲ </t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t xml:space="preserve">チョクセツ </t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t xml:space="preserve">チョクセツ </t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t xml:space="preserve">ノセマス </t>
+    </rPh>
+    <rPh sb="92" eb="96">
+      <t xml:space="preserve">ダイイチカイソウ </t>
+    </rPh>
+    <rPh sb="100" eb="103">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t xml:space="preserve">テイギ </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1279,28 +1322,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1308,9 +1346,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1318,9 +1356,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1332,9 +1370,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1363,13 +1401,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1380,16 +1416,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1398,6 +1434,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1790,7 +1835,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1834,7 +1879,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1859,10 +1904,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1907,10 +1952,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="73"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
@@ -1920,10 +1965,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="10" t="s">
         <v>51</v>
       </c>
@@ -1933,31 +1978,31 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="73"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:10">
@@ -1971,717 +2016,741 @@
       <c r="H10"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="21">
+      <c r="A14" s="16">
         <v>1</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="27">
+      <c r="A15" s="22">
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="27">
-        <f t="shared" ref="A16:A41" si="0">A15+1</f>
+      <c r="A16" s="22">
+        <f t="shared" ref="A16:A42" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="32"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="27">
+      <c r="A17" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="61" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="32"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="27">
+      <c r="A18" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="27">
+      <c r="A19" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="57" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" spans="1:10" s="60" customFormat="1">
-      <c r="A20" s="27">
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" s="54" customFormat="1">
+      <c r="A20" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49">
+      <c r="D20" s="43"/>
+      <c r="E20" s="44">
         <v>4</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="32"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="27">
+      <c r="A21" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="32"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="27">
+      <c r="A22" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="55" t="s">
+      <c r="D22" s="47"/>
+      <c r="E22" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="32"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10" ht="63" customHeight="1">
-      <c r="A23" s="27">
+      <c r="A23" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="56" t="s">
+      <c r="D23" s="47"/>
+      <c r="E23" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="32"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="27">
+      <c r="A24" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="53" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="27">
+      <c r="A25" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="27">
+      <c r="A26" s="22">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="32"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="27">
+      <c r="A27" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="32"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="27">
+      <c r="A28" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31" t="s">
+      <c r="E28" s="25"/>
+      <c r="F28" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="32"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="27">
+      <c r="A29" s="22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31" t="s">
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="27">
+      <c r="A30" s="22">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30" t="b">
+      <c r="D30" s="24"/>
+      <c r="E30" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="27">
+      <c r="A31" s="22">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31" t="s">
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="32"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="27">
+      <c r="A32" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="32"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="27">
+      <c r="A33" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30" t="b">
+      <c r="D33" s="24"/>
+      <c r="E33" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="27">
+      <c r="A34" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31" t="s">
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="27">
+      <c r="A35" s="22">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31" t="s">
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="32"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="27">
+      <c r="A36" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30" t="s">
+      <c r="D36" s="24"/>
+      <c r="E36" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" s="60" customFormat="1">
-      <c r="A37" s="27">
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
+    </row>
+    <row r="37" spans="1:10" s="54" customFormat="1">
+      <c r="A37" s="22">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="59" t="s">
+      <c r="D37" s="47"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="63"/>
-    </row>
-    <row r="38" spans="1:10" s="60" customFormat="1">
-      <c r="A38" s="27">
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="56"/>
+    </row>
+    <row r="38" spans="1:10" s="54" customFormat="1">
+      <c r="A38" s="22">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="59" t="s">
+      <c r="D38" s="47"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="63"/>
-    </row>
-    <row r="39" spans="1:10" s="60" customFormat="1">
-      <c r="A39" s="27">
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="56"/>
+    </row>
+    <row r="39" spans="1:10" s="54" customFormat="1">
+      <c r="A39" s="22">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="59" t="s">
+      <c r="D39" s="47"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="63"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="56"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="27">
+      <c r="A40" s="22">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31" t="s">
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="27">
+      <c r="A41" s="22">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="31" t="s">
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="32"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="27"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="27"/>
+    </row>
+    <row r="42" spans="1:10" ht="90" customHeight="1">
+      <c r="A42" s="22">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="72"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="34"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="27"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="34"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="27"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="35"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="27"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="30"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="F42:J42"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
@@ -2696,18 +2765,18 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F61" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F62" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D40:D45 D24:D36" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D46" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="D37:D39" xr:uid="{63D67B82-B922-2A4B-A753-C1FDBDD960D6}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C45" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C46" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>
@@ -2742,9 +2811,9 @@
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2753,63 +2822,63 @@
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="57" t="s">
         <v>88</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="58" t="s">
         <v>35</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="59" t="s">
         <v>48</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="35"/>
+      <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="59" t="s">
         <v>89</v>
       </c>
       <c r="B7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="59" t="s">
         <v>90</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="59" t="s">
         <v>34</v>
       </c>
       <c r="B9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="66"/>
+      <c r="A10" s="59"/>
       <c r="B10"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="66"/>
+      <c r="A11" s="59"/>
       <c r="B11"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="67"/>
+      <c r="A12" s="60"/>
       <c r="B12"/>
     </row>
     <row r="13" spans="1:6">

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E425AA05-1376-A24F-AE5D-6AA27E6304A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD9B237-2DC0-8E45-8260-C9E99774A4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -804,6 +804,20 @@
     </rPh>
     <rPh sb="106" eb="108">
       <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>appendApplicationPackage</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Management クラスの package として、Controller クラスの package に application を追加したものを想定し、importします。</t>
+    <rPh sb="67" eb="69">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t xml:space="preserve">ソウテイシマス </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1412,6 +1426,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1434,15 +1457,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1835,7 +1849,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1879,7 +1893,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1906,8 +1920,8 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42:J42"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1952,10 +1966,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
@@ -1965,10 +1979,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="10" t="s">
         <v>51</v>
       </c>
@@ -1978,10 +1992,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
@@ -1993,10 +2007,10 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
@@ -2030,40 +2044,40 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="16">
@@ -2112,7 +2126,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="22">
-        <f t="shared" ref="A16:A42" si="0">A15+1</f>
+        <f t="shared" ref="A16:A43" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -2282,12 +2296,12 @@
       <c r="E23" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
       <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10">
@@ -2692,21 +2706,32 @@
       <c r="E42" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="70" t="s">
+      <c r="F42" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="72"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="63"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="22"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
+      <c r="A43" s="22">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="D43" s="24"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="26"/>
+      <c r="E43" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>98</v>
+      </c>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
@@ -2750,18 +2775,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:J13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:J13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD9B237-2DC0-8E45-8260-C9E99774A4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F3EBB1-94D1-7443-B529-C4D2FB62ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -818,6 +818,20 @@
     </rPh>
     <rPh sb="74" eb="76">
       <t xml:space="preserve">ソウテイシマス </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>serdeable</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>電文クラスに@Serdeableアノテーションを付与します。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">フヨシマス。 </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1336,7 +1350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1426,6 +1440,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1448,15 +1472,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1849,7 +1872,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1893,7 +1916,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1918,10 +1941,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1966,10 +1989,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
@@ -1979,10 +2002,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="69"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="10" t="s">
         <v>51</v>
       </c>
@@ -1992,10 +2015,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="69"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
@@ -2007,10 +2030,10 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
@@ -2044,40 +2067,40 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="16">
@@ -2126,7 +2149,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="22">
-        <f t="shared" ref="A16:A43" si="0">A15+1</f>
+        <f t="shared" ref="A16:A44" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -2296,12 +2319,12 @@
       <c r="E23" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
       <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10">
@@ -2706,13 +2729,13 @@
       <c r="E42" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="61" t="s">
+      <c r="F42" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="63"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="67"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="22">
@@ -2729,25 +2752,36 @@
       <c r="E43" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="27"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="75"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="29"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
+      <c r="A44" s="22">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="D44" s="24"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="27"/>
+      <c r="E44" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="29"/>
@@ -2762,19 +2796,38 @@
       <c r="J45" s="27"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="30"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="35"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="27"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="30"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:J13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
@@ -2782,26 +2835,21 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:J13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F62" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F63" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D46" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D47" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="D37:D39" xr:uid="{63D67B82-B922-2A4B-A753-C1FDBDD960D6}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C46" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C47" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F3EBB1-94D1-7443-B529-C4D2FB62ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC40950-856A-254A-9A93-3C3E33FBAA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -833,6 +833,20 @@
     <rPh sb="24" eb="26">
       <t xml:space="preserve">フヨシマス。 </t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>電文クラスに@JsonIgnoreProperties(ignoreunknow = true)アノテーションを付与します。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">フヨシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ignoreUnknown</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1440,15 +1454,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1472,14 +1485,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1872,7 +1886,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1916,7 +1930,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1941,10 +1955,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1989,10 +2003,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
@@ -2002,10 +2016,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="10" t="s">
         <v>51</v>
       </c>
@@ -2015,10 +2029,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
@@ -2030,10 +2044,10 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
@@ -2067,40 +2081,40 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="16">
@@ -2149,7 +2163,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="22">
-        <f t="shared" ref="A16:A44" si="0">A15+1</f>
+        <f t="shared" ref="A16:A45" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -2319,12 +2333,12 @@
       <c r="E23" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
       <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10">
@@ -2729,13 +2743,13 @@
       <c r="E42" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="65" t="s">
+      <c r="F42" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="68"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="22">
@@ -2752,13 +2766,13 @@
       <c r="E43" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="F43" s="73" t="s">
+      <c r="F43" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="75"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="63"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="22">
@@ -2775,25 +2789,36 @@
       <c r="E44" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="F44" s="76" t="s">
+      <c r="F44" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="29"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
+      <c r="A45" s="22">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="D45" s="24"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="26"/>
+      <c r="E45" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>101</v>
+      </c>
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
       <c r="I45" s="26"/>
-      <c r="J45" s="27"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="29"/>
@@ -2808,19 +2833,38 @@
       <c r="J46" s="27"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="30"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="35"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="27"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="30"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="F43:J43"/>
     <mergeCell ref="F44:J44"/>
     <mergeCell ref="F42:J42"/>
@@ -2828,28 +2872,21 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:J13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F63" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F64" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D47" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D48" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="D37:D39" xr:uid="{63D67B82-B922-2A4B-A753-C1FDBDD960D6}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C47" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C48" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC40950-856A-254A-9A93-3C3E33FBAA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1AD46B-F81A-614B-AF7F-33218D0BEE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -847,6 +847,20 @@
   </si>
   <si>
     <t>ignoreUnknown</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>nullableAnnotation</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「必須」が指定されていないパラメータに@Nullableアノテーションを強制します</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">フヨシマス。 </t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1454,6 +1468,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -1483,16 +1507,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1886,7 +1900,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1930,7 +1944,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1955,10 +1969,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2003,10 +2017,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
@@ -2016,10 +2030,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="10" t="s">
         <v>51</v>
       </c>
@@ -2029,10 +2043,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
@@ -2044,10 +2058,10 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
@@ -2081,40 +2095,40 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="16">
@@ -2163,7 +2177,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="22">
-        <f t="shared" ref="A16:A45" si="0">A15+1</f>
+        <f t="shared" ref="A16:A46" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -2333,12 +2347,12 @@
       <c r="E23" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
       <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10">
@@ -2743,13 +2757,13 @@
       <c r="E42" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="66" t="s">
+      <c r="F42" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="68"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="72"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="22">
@@ -2766,13 +2780,13 @@
       <c r="E43" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="63"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="67"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="22">
@@ -2789,13 +2803,13 @@
       <c r="E44" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="F44" s="64" t="s">
+      <c r="F44" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="22">
@@ -2821,16 +2835,27 @@
       <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="29"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
+      <c r="A46" s="22">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="D46" s="24"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="26"/>
+      <c r="E46" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>104</v>
+      </c>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
-      <c r="J46" s="27"/>
+      <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="29"/>
@@ -2845,19 +2870,38 @@
       <c r="J47" s="27"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="30"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="35"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="27"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="30"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:J13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
@@ -2865,28 +2909,21 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:J13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F64" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F65" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D48" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D49" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="D37:D39" xr:uid="{63D67B82-B922-2A4B-A753-C1FDBDD960D6}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C48" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C49" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1AD46B-F81A-614B-AF7F-33218D0BEE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35E7A9FB-C534-7541-A26B-DEED8AC94248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3980" yWindow="1640" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anttask" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="必須">config!$C$5:$C$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -856,10 +857,7 @@
   <si>
     <t>「必須」が指定されていないパラメータに@Nullableアノテーションを強制します</t>
     <rPh sb="0" eb="2">
-      <t xml:space="preserve">デンブｎ </t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t xml:space="preserve">フヨシマス。 </t>
+      <t xml:space="preserve">デンブｎ フヨシマス。 </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1468,16 +1466,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -1507,6 +1495,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1900,7 +1898,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1944,7 +1942,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1971,7 +1969,7 @@
   </sheetPr>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
@@ -2017,10 +2015,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
@@ -2030,10 +2028,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="10" t="s">
         <v>51</v>
       </c>
@@ -2043,10 +2041,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
@@ -2058,10 +2056,10 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
@@ -2095,40 +2093,40 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="77" t="s">
+      <c r="F12" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="16">
@@ -2347,12 +2345,12 @@
       <c r="E23" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
       <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10">
@@ -2757,13 +2755,13 @@
       <c r="E42" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="70" t="s">
+      <c r="F42" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="72"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="68"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="22">
@@ -2780,13 +2778,13 @@
       <c r="E43" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="F43" s="65" t="s">
+      <c r="F43" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="67"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="63"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="22">
@@ -2803,13 +2801,13 @@
       <c r="E44" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="F44" s="68" t="s">
+      <c r="F44" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="22">
@@ -2895,6 +2893,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="F43:J43"/>
     <mergeCell ref="F44:J44"/>
     <mergeCell ref="F42:J42"/>
@@ -2902,13 +2907,6 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:J13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35E7A9FB-C534-7541-A26B-DEED8AC94248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215DD3F5-FBD6-954E-AC86-2FD3A304BAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="1640" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="必須">config!$C$5:$C$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -858,6 +857,32 @@
     <t>「必須」が指定されていないパラメータに@Nullableアノテーションを強制します</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">デンブｎ フヨシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>isTargetJaraktaEE</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>target が JVM17 以降の開発環境で利用する場合、J2EE の代わりに JakartaEE を使用する。</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t xml:space="preserve">カイハツカンキョウ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">リヨウスル </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">バアイ、 </t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t xml:space="preserve">カワリニ </t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">シヨウスル </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1466,6 +1491,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -1495,16 +1530,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1898,7 +1923,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1942,7 +1967,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1967,10 +1992,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2015,10 +2040,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
@@ -2028,10 +2053,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="10" t="s">
         <v>51</v>
       </c>
@@ -2041,10 +2066,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
@@ -2056,10 +2081,10 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
@@ -2093,40 +2118,40 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="16">
@@ -2175,7 +2200,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="22">
-        <f t="shared" ref="A16:A46" si="0">A15+1</f>
+        <f t="shared" ref="A16:A47" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -2345,12 +2370,12 @@
       <c r="E23" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
       <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10">
@@ -2755,13 +2780,13 @@
       <c r="E42" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="66" t="s">
+      <c r="F42" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="68"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="72"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="22">
@@ -2778,13 +2803,13 @@
       <c r="E43" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="63"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="67"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="22">
@@ -2801,13 +2826,13 @@
       <c r="E44" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="F44" s="64" t="s">
+      <c r="F44" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="22">
@@ -2856,12 +2881,23 @@
       <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="29"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
+      <c r="A47" s="22">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>34</v>
+      </c>
       <c r="D47" s="24"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="26"/>
+      <c r="E47" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>106</v>
+      </c>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
       <c r="I47" s="26"/>
@@ -2880,19 +2916,38 @@
       <c r="J48" s="27"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="35"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="27"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="30"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:J13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
@@ -2900,28 +2955,21 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:J13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F65" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F66" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D49" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D50" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="D37:D39" xr:uid="{63D67B82-B922-2A4B-A753-C1FDBDD960D6}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C49" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C50" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215DD3F5-FBD6-954E-AC86-2FD3A304BAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910239B7-DD8B-8140-8BE6-9C64B857FA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="1640" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="10200" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anttask" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -883,6 +883,26 @@
     </rPh>
     <rPh sb="52" eb="54">
       <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>injectInterfaceToController</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Micronaut の Controller にManagement クラスの代わりに Interface を依存注入する。true にすると genSkelton と appendApplicationPackage は false を強制されます。</t>
+    <rPh sb="39" eb="40">
+      <t xml:space="preserve">カワリ </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">イゾｎ </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">チュウニュウ </t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t xml:space="preserve">キョウセイ </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1992,10 +2012,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2200,7 +2220,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="22">
-        <f t="shared" ref="A16:A47" si="0">A15+1</f>
+        <f t="shared" ref="A16:A48" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -2904,12 +2924,23 @@
       <c r="J47" s="27"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="29"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
+      <c r="A48" s="22">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>34</v>
+      </c>
       <c r="D48" s="24"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="26"/>
+      <c r="E48" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
       <c r="I48" s="26"/>
@@ -2928,16 +2959,28 @@
       <c r="J49" s="27"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="35"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="30"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2958,18 +3001,18 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F66" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F67" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D50" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D51" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="D37:D39" xr:uid="{63D67B82-B922-2A4B-A753-C1FDBDD960D6}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C50" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C51" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910239B7-DD8B-8140-8BE6-9C64B857FA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB57D68F-9CF8-2C45-B47F-1FB8AF78F4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="10200" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -903,6 +903,45 @@
     </rPh>
     <rPh sb="119" eb="121">
       <t xml:space="preserve">キョウセイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>micronautVersion</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>3.0</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>想定する Micronaut の最低バージョンを指定します。バージョンによって若干の動作差異や不具合があるため、それに対応する目的です。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ソウテイスル </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">サイテイ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">ジャッカｎ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">ドウサ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">サイ </t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t xml:space="preserve">フグアイ </t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">モクテキデス。 </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1421,7 +1460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1511,16 +1550,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -1552,6 +1581,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1943,7 +1983,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1987,7 +2027,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2012,10 +2052,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2060,10 +2100,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
@@ -2073,10 +2113,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="10" t="s">
         <v>51</v>
       </c>
@@ -2086,10 +2126,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
@@ -2101,10 +2141,10 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
@@ -2138,40 +2178,40 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="77" t="s">
+      <c r="F12" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="16">
@@ -2220,7 +2260,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="22">
-        <f t="shared" ref="A16:A48" si="0">A15+1</f>
+        <f t="shared" ref="A16:A49" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -2390,12 +2430,12 @@
       <c r="E23" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
       <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10">
@@ -2800,13 +2840,13 @@
       <c r="E42" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="70" t="s">
+      <c r="F42" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="72"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="68"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="22">
@@ -2823,13 +2863,13 @@
       <c r="E43" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="F43" s="65" t="s">
+      <c r="F43" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="67"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="63"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="22">
@@ -2846,13 +2886,13 @@
       <c r="E44" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="F44" s="68" t="s">
+      <c r="F44" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="22">
@@ -2947,12 +2987,23 @@
       <c r="J48" s="27"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="29"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
+      <c r="A49" s="22">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="D49" s="24"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="26"/>
+      <c r="E49" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>111</v>
+      </c>
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
       <c r="I49" s="26"/>
@@ -2971,19 +3022,38 @@
       <c r="J50" s="27"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="35"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="27"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="30"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="F43:J43"/>
     <mergeCell ref="F44:J44"/>
     <mergeCell ref="F42:J42"/>
@@ -2991,28 +3061,21 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:J13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F67" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F68" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D51" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D52" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="D37:D39" xr:uid="{63D67B82-B922-2A4B-A753-C1FDBDD960D6}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C51" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C52" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB57D68F-9CF8-2C45-B47F-1FB8AF78F4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC01501-5C46-FF45-A0AA-49B5A7B69162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="10200" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -942,6 +942,23 @@
     </rPh>
     <rPh sb="63" eb="65">
       <t xml:space="preserve">モクテキデス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>deserializerRequestHeader</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>自動生成されるdeserializerに設定するRequestHeaderクラスを指定します</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ジドウセイセイ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">シテイシマス </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1550,6 +1567,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -1581,17 +1609,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1983,7 +2000,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2027,7 +2044,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2052,10 +2069,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2100,10 +2117,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
@@ -2113,10 +2130,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="10" t="s">
         <v>51</v>
       </c>
@@ -2126,10 +2143,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
@@ -2141,10 +2158,10 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
@@ -2178,40 +2195,40 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="16">
@@ -2430,12 +2447,12 @@
       <c r="E23" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
       <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10">
@@ -2840,13 +2857,13 @@
       <c r="E42" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="66" t="s">
+      <c r="F42" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="68"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="73"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="22">
@@ -2863,13 +2880,13 @@
       <c r="E43" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="63"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="22">
@@ -2886,13 +2903,13 @@
       <c r="E44" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="F44" s="64" t="s">
+      <c r="F44" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="22">
@@ -2998,7 +3015,7 @@
         <v>35</v>
       </c>
       <c r="D49" s="24"/>
-      <c r="E49" s="78" t="s">
+      <c r="E49" s="61" t="s">
         <v>110</v>
       </c>
       <c r="F49" s="26" t="s">
@@ -3010,23 +3027,32 @@
       <c r="J49" s="27"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="29"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
+      <c r="A50" s="22">
+        <f>A49+1</f>
+        <v>37</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="D50" s="24"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="26"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="26" t="s">
+        <v>113</v>
+      </c>
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
       <c r="I50" s="26"/>
       <c r="J50" s="27"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="29"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="24"/>
-      <c r="E51" s="25"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
@@ -3034,19 +3060,50 @@
       <c r="J51" s="27"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="30"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="35"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="27"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="29"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="27"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="30"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:J13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
@@ -3054,28 +3111,21 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:J13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F68" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F70" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D52" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D54" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="D37:D39" xr:uid="{63D67B82-B922-2A4B-A753-C1FDBDD960D6}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C52" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C54" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC01501-5C46-FF45-A0AA-49B5A7B69162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358826F5-A098-E745-B77C-5C15BAD4E871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="10200" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="116">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -951,6 +951,23 @@
   </si>
   <si>
     <t>自動生成されるdeserializerに設定するRequestHeaderクラスを指定します</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ジドウセイセイ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">シテイシマス </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>deserializerCommonRequest</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>自動生成されるdeserializerに設定するCommonRequestクラスを指定します</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">ジドウセイセイ </t>
     </rPh>
@@ -1568,16 +1585,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -1607,6 +1614,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2000,7 +2017,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2044,7 +2061,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2069,10 +2086,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2117,10 +2134,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
@@ -2130,10 +2147,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="10" t="s">
         <v>51</v>
       </c>
@@ -2143,10 +2160,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
@@ -2158,10 +2175,10 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
@@ -2195,40 +2212,40 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="77" t="s">
+      <c r="E12" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="16">
@@ -2447,12 +2464,12 @@
       <c r="E23" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
       <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10">
@@ -2857,13 +2874,13 @@
       <c r="E42" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="71" t="s">
+      <c r="F42" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="73"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="69"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="22">
@@ -2880,13 +2897,13 @@
       <c r="E43" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="F43" s="66" t="s">
+      <c r="F43" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="68"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="64"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="22">
@@ -2903,13 +2920,13 @@
       <c r="E44" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="F44" s="69" t="s">
+      <c r="F44" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="22">
@@ -3048,23 +3065,32 @@
       <c r="J50" s="27"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="22"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="41"/>
+      <c r="A51" s="22">
+        <f>A50+1</f>
+        <v>38</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="D51" s="24"/>
       <c r="E51" s="61"/>
-      <c r="F51" s="26"/>
+      <c r="F51" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
       <c r="I51" s="26"/>
       <c r="J51" s="27"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="29"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="24"/>
-      <c r="E52" s="25"/>
+      <c r="E52" s="61"/>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
       <c r="H52" s="26"/>
@@ -3084,19 +3110,38 @@
       <c r="J53" s="27"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="30"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="35"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="27"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="30"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="F43:J43"/>
     <mergeCell ref="F44:J44"/>
     <mergeCell ref="F42:J42"/>
@@ -3104,28 +3149,21 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:J13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F70" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F71" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D54" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D55" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="D37:D39" xr:uid="{63D67B82-B922-2A4B-A753-C1FDBDD960D6}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C54" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C55" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoRestGeneratorKtTask.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358826F5-A098-E745-B77C-5C15BAD4E871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C429EC-77C5-6C48-BE10-EAE5CB297BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="10200" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -976,6 +976,35 @@
     </rPh>
     <rPh sb="41" eb="43">
       <t xml:space="preserve">シテイシマス </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>noClientInterface</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Clientモード時に、ClientInterface を生成しません。Request/Responseオブジェクトに仮想パラメータを付与した場合にClientInterfaceは正しく生成されません。</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ジ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t xml:space="preserve">カソウ </t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t xml:space="preserve">フヨ </t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t xml:space="preserve">バアイニ </t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t xml:space="preserve">タダシク </t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t xml:space="preserve">セイセイ </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1585,6 +1614,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -1614,16 +1653,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2017,7 +2046,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2061,7 +2090,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2086,10 +2115,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2134,10 +2163,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
@@ -2147,10 +2176,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="77"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="10" t="s">
         <v>51</v>
       </c>
@@ -2160,10 +2189,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="77"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
@@ -2175,10 +2204,10 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="77"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
@@ -2212,40 +2241,40 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="16">
@@ -2294,7 +2323,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="22">
-        <f t="shared" ref="A16:A49" si="0">A15+1</f>
+        <f t="shared" ref="A16:A50" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -2464,12 +2493,12 @@
       <c r="E23" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="70" t="s">
+      <c r="F23" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
       <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10">
@@ -2543,17 +2572,17 @@
         <v>14</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="24"/>
-      <c r="E27" s="25" t="s">
-        <v>54</v>
+      <c r="E27" s="25" t="b">
+        <v>0</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
@@ -2562,21 +2591,21 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="22">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>A26+1</f>
+        <v>14</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C28" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="25"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="F28" s="26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
@@ -2586,18 +2615,20 @@
     <row r="29" spans="1:10">
       <c r="A29" s="22">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="24"/>
+      <c r="D29" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="E29" s="25"/>
       <c r="F29" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
@@ -2607,20 +2638,18 @@
     <row r="30" spans="1:10">
       <c r="A30" s="22">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="D30" s="24"/>
-      <c r="E30" s="25" t="b">
-        <v>1</v>
-      </c>
+      <c r="E30" s="25"/>
       <c r="F30" s="26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
@@ -2630,18 +2659,20 @@
     <row r="31" spans="1:10">
       <c r="A31" s="22">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>33</v>
+        <v>62</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
+      <c r="E31" s="25" t="b">
+        <v>1</v>
+      </c>
       <c r="F31" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
@@ -2651,10 +2682,10 @@
     <row r="32" spans="1:10">
       <c r="A32" s="22">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>67</v>
+        <v>18</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>33</v>
@@ -2662,7 +2693,7 @@
       <c r="D32" s="24"/>
       <c r="E32" s="25"/>
       <c r="F32" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
@@ -2672,20 +2703,18 @@
     <row r="33" spans="1:10">
       <c r="A33" s="22">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="D33" s="24"/>
-      <c r="E33" s="25" t="b">
-        <v>0</v>
-      </c>
+      <c r="E33" s="25"/>
       <c r="F33" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
@@ -2695,18 +2724,20 @@
     <row r="34" spans="1:10">
       <c r="A34" s="22">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>33</v>
+        <v>69</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
+      <c r="E34" s="25" t="b">
+        <v>0</v>
+      </c>
       <c r="F34" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
@@ -2716,10 +2747,10 @@
     <row r="35" spans="1:10">
       <c r="A35" s="22">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>33</v>
@@ -2727,7 +2758,7 @@
       <c r="D35" s="24"/>
       <c r="E35" s="25"/>
       <c r="F35" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
@@ -2737,53 +2768,54 @@
     <row r="36" spans="1:10">
       <c r="A36" s="22">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>75</v>
+        <v>22</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="C36" s="40" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="24"/>
-      <c r="E36" s="25" t="s">
-        <v>77</v>
-      </c>
+      <c r="E36" s="25"/>
       <c r="F36" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
       <c r="J36" s="27"/>
     </row>
-    <row r="37" spans="1:10" s="54" customFormat="1">
+    <row r="37" spans="1:10">
       <c r="A37" s="22">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B37" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="56"/>
+        <v>23</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27"/>
     </row>
     <row r="38" spans="1:10" s="54" customFormat="1">
       <c r="A38" s="22">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" s="41" t="s">
         <v>35</v>
@@ -2791,7 +2823,7 @@
       <c r="D38" s="47"/>
       <c r="E38" s="55"/>
       <c r="F38" s="53" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G38" s="45"/>
       <c r="H38" s="45"/>
@@ -2800,10 +2832,10 @@
     <row r="39" spans="1:10" s="54" customFormat="1">
       <c r="A39" s="22">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" s="41" t="s">
         <v>35</v>
@@ -2811,40 +2843,39 @@
       <c r="D39" s="47"/>
       <c r="E39" s="55"/>
       <c r="F39" s="53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G39" s="45"/>
       <c r="H39" s="45"/>
       <c r="I39" s="56"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" s="54" customFormat="1">
       <c r="A40" s="22">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>84</v>
+        <v>26</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>82</v>
       </c>
       <c r="C40" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="27"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="22">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>35</v>
@@ -2852,89 +2883,87 @@
       <c r="D41" s="24"/>
       <c r="E41" s="25"/>
       <c r="F41" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
       <c r="J41" s="27"/>
     </row>
-    <row r="42" spans="1:10" ht="90" customHeight="1">
+    <row r="42" spans="1:10">
       <c r="A42" s="22">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="24"/>
-      <c r="E42" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="69"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="E42" s="25"/>
+      <c r="F42" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43" spans="1:10" ht="90" customHeight="1">
       <c r="A43" s="22">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>63</v>
+        <v>29</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>35</v>
       </c>
       <c r="D43" s="24"/>
-      <c r="E43" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="64"/>
+      <c r="E43" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="73"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="22">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>63</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
+        <v>1</v>
+      </c>
+      <c r="F44" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="68"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="22">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>63</v>
@@ -2943,21 +2972,21 @@
       <c r="E45" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="F45" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
+      <c r="F45" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="22">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>63</v>
@@ -2967,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
@@ -2977,33 +3006,33 @@
     <row r="47" spans="1:10">
       <c r="A47" s="22">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="25" t="b">
         <v>0</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
       <c r="I47" s="26"/>
-      <c r="J47" s="27"/>
+      <c r="J47" s="26"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="22">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C48" s="41" t="s">
         <v>34</v>
@@ -3013,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
@@ -3023,20 +3052,20 @@
     <row r="49" spans="1:10">
       <c r="A49" s="22">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="24"/>
-      <c r="E49" s="61" t="s">
-        <v>110</v>
+      <c r="E49" s="25" t="b">
+        <v>0</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
@@ -3045,19 +3074,21 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="22">
-        <f>A49+1</f>
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C50" s="41" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="24"/>
-      <c r="E50" s="61"/>
+      <c r="E50" s="61" t="s">
+        <v>110</v>
+      </c>
       <c r="F50" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
@@ -3067,10 +3098,10 @@
     <row r="51" spans="1:10">
       <c r="A51" s="22">
         <f>A50+1</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>35</v>
@@ -3078,7 +3109,7 @@
       <c r="D51" s="24"/>
       <c r="E51" s="61"/>
       <c r="F51" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
@@ -3086,23 +3117,32 @@
       <c r="J51" s="27"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="22"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="41"/>
+      <c r="A52" s="22">
+        <f>A51+1</f>
+        <v>38</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="D52" s="24"/>
       <c r="E52" s="61"/>
-      <c r="F52" s="26"/>
+      <c r="F52" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="G52" s="26"/>
       <c r="H52" s="26"/>
       <c r="I52" s="26"/>
       <c r="J52" s="27"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="29"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="24"/>
-      <c r="E53" s="25"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
       <c r="H53" s="26"/>
@@ -3122,19 +3162,38 @@
       <c r="J54" s="27"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="30"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="35"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="27"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="30"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:J13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
@@ -3142,28 +3201,21 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:J13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F71" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F72" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D24:D36 D40:D55" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D18 D41:D56 D24:D37" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D37:D39" xr:uid="{63D67B82-B922-2A4B-A753-C1FDBDD960D6}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D38:D40" xr:uid="{63D67B82-B922-2A4B-A753-C1FDBDD960D6}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C55" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C56" xr:uid="{D5E4D29A-5441-8E41-BAE4-E57484D3E79E}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>
